--- a/biology/Histoire de la zoologie et de la botanique/Jean_Chalon_(botaniste)/Jean_Chalon_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Chalon_(botaniste)/Jean_Chalon_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Chalon, né le 6 juillet 1846 à Namur et décédé le 9 avril 1921 à Saint-Servais, est un botaniste, folkloriste, pédagogue, photographe amateur, vulgarisateur scientifique et un militant laïc belge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en sciences naturelles diplômé de l’Université catholique de Louvain, Jean Chalon est l’auteur de plus de 450 publications.
 Parmi celles qui illustrent son œuvre de botaniste, on notera les Arbres remarquables de la Belgique (1910-1912).
